--- a/inst/extdata/toyFiles/ROC/duplicatedRow.xlsx
+++ b/inst/extdata/toyFiles/ROC/duplicatedRow.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="18">
   <si>
     <t>CaseID</t>
   </si>
@@ -62,7 +62,19 @@
     <t>TP_Rating</t>
   </si>
   <si>
-    <t>duplicated row</t>
+    <t>Paradigm</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>crossed</t>
+  </si>
+  <si>
+    <t>ROC</t>
   </si>
 </sst>
 </file>
@@ -111,8 +123,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -129,13 +143,15 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -925,19 +941,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="3" width="8.83203125" style="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -950,8 +968,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -964,8 +991,17 @@
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -978,8 +1014,12 @@
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -992,8 +1032,12 @@
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>70</v>
       </c>
@@ -1006,8 +1050,12 @@
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>71</v>
       </c>
@@ -1020,8 +1068,12 @@
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>71</v>
       </c>
@@ -1034,11 +1086,12 @@
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>72</v>
       </c>
@@ -1051,8 +1104,12 @@
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>73</v>
       </c>
@@ -1065,8 +1122,12 @@
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>74</v>
       </c>
@@ -1079,6 +1140,61 @@
       <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/extdata/toyFiles/ROC/duplicatedRow.xlsx
+++ b/inst/extdata/toyFiles/ROC/duplicatedRow.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="17">
   <si>
     <t>CaseID</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Paradigm</t>
-  </si>
-  <si>
-    <t>Design</t>
   </si>
   <si>
     <t>0,1</t>
@@ -123,8 +120,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -143,15 +142,17 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -941,10 +942,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -955,7 +956,7 @@
     <col min="6" max="6" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -974,11 +975,8 @@
       <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -992,16 +990,13 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1015,11 +1010,13 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3"/>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1033,11 +1030,11 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>70</v>
       </c>
@@ -1051,11 +1048,11 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>71</v>
       </c>
@@ -1069,11 +1066,11 @@
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>71</v>
       </c>
@@ -1087,11 +1084,11 @@
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>72</v>
       </c>
@@ -1105,11 +1102,11 @@
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>73</v>
       </c>
@@ -1123,11 +1120,11 @@
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>74</v>
       </c>
@@ -1141,29 +1138,29 @@
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6">
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:6">
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:6">
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:6">
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:6">
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:6">
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="5:5">

--- a/inst/extdata/toyFiles/ROC/duplicatedRow.xlsx
+++ b/inst/extdata/toyFiles/ROC/duplicatedRow.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/ROC/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC151C8-C31F-FD4F-8750-CA8C0BACE306}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FP" sheetId="2" r:id="rId1"/>
     <sheet name="TRUTH" sheetId="1" r:id="rId2"/>
     <sheet name="TP" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -68,16 +74,16 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>crossed</t>
+    <t>ROC</t>
   </si>
   <si>
-    <t>ROC</t>
+    <t>FCTRL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,6 +163,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -481,19 +495,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -507,7 +521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -521,7 +535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -535,7 +549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -549,7 +563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -563,7 +577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -577,7 +591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -591,7 +605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -605,7 +619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -619,7 +633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -633,7 +647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -647,7 +661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -661,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -675,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -689,7 +703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -703,7 +717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -717,7 +731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -731,7 +745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -745,7 +759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -759,7 +773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -773,7 +787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -787,7 +801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -801,7 +815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -815,7 +829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -829,7 +843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -843,7 +857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -857,7 +871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,7 +885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
@@ -885,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,7 +913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -913,7 +927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
@@ -941,14 +955,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="8.83203125" style="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
@@ -956,7 +970,7 @@
     <col min="6" max="6" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -976,7 +990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -993,10 +1007,10 @@
         <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1013,10 +1027,10 @@
         <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1034,7 +1048,7 @@
       </c>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>70</v>
       </c>
@@ -1052,7 +1066,7 @@
       </c>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>71</v>
       </c>
@@ -1070,7 +1084,7 @@
       </c>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>71</v>
       </c>
@@ -1088,7 +1102,7 @@
       </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>72</v>
       </c>
@@ -1106,7 +1120,7 @@
       </c>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>73</v>
       </c>
@@ -1124,7 +1138,7 @@
       </c>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>74</v>
       </c>
@@ -1142,55 +1156,55 @@
       </c>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="5:5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="5:5">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="5:5">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="5:5">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="5:5">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="5:5">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="5:5">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="5:5">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="5:5">
+    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="5:5">
+    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E26" s="2"/>
     </row>
   </sheetData>
@@ -1205,19 +1219,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1234,7 +1248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1251,7 +1265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1268,7 +1282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1285,7 +1299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1302,7 +1316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1319,7 +1333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1336,7 +1350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1353,7 +1367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1370,7 +1384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1387,7 +1401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1404,7 +1418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1421,7 +1435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1438,7 +1452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -1455,7 +1469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1472,7 +1486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -1489,7 +1503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1506,7 +1520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1523,7 +1537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1540,7 +1554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1557,7 +1571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1574,7 +1588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -1591,7 +1605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -1608,7 +1622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -1625,7 +1639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -1642,7 +1656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -1659,7 +1673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -1676,7 +1690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -1693,7 +1707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -1710,7 +1724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
@@ -1727,7 +1741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
@@ -1744,7 +1758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
@@ -1761,7 +1775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
@@ -1778,7 +1792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>7</v>
       </c>
@@ -1795,7 +1809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
@@ -1812,7 +1826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
@@ -1829,7 +1843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
@@ -1846,7 +1860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>8</v>
       </c>
@@ -1863,7 +1877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>8</v>
       </c>
@@ -1880,7 +1894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
@@ -1897,7 +1911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
@@ -1914,7 +1928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>9</v>
       </c>
@@ -1931,7 +1945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>9</v>
       </c>
@@ -1948,7 +1962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>9</v>
       </c>
@@ -1965,7 +1979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>9</v>
       </c>
@@ -1982,7 +1996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>9</v>
       </c>
@@ -1999,7 +2013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -2016,7 +2030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>10</v>
       </c>
@@ -2033,7 +2047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>10</v>
       </c>
@@ -2050,7 +2064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>10</v>
       </c>
@@ -2067,7 +2081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>10</v>
       </c>
